--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -439,10 +439,8 @@
           <t>fcst_name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
@@ -500,37 +498,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5866</v>
+        <v>2397</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E2" t="n">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>6488</v>
+        <v>10.64</v>
       </c>
       <c r="I2" t="n">
-        <v>22556</v>
+        <v>191.11</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="L2" t="n">
-        <v>17958</v>
+        <v>244.4</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +538,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E3" t="n">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="n">
-        <v>6989</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +578,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488</v>
+        <v>269</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,28 +618,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>851</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E5" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>7055</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -660,28 +658,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800</v>
+        <v>268</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3000</v>
+        <v>63.64</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -700,16 +698,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762</v>
+        <v>272</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7143</v>
+        <v>70</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +738,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E8" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>1.29</v>
       </c>
       <c r="I8" t="n">
-        <v>9237</v>
+        <v>87.16</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +778,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>765</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>87.5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,16 +818,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2189</v>
+        <v>810</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -838,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1429</v>
+        <v>9.09</v>
       </c>
       <c r="I10" t="n">
-        <v>19667</v>
+        <v>177.78</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -860,31 +858,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5207</v>
+        <v>2458</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1836</v>
+        <v>17.24</v>
       </c>
       <c r="I11" t="n">
-        <v>24750</v>
+        <v>254.14</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,31 +898,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3092</v>
+        <v>1678</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" t="n">
         <v>17</v>
       </c>
-      <c r="E12" t="n">
-        <v>18</v>
-      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I12" t="n">
-        <v>6667</v>
+        <v>190</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +938,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2072</v>
+        <v>956</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>60</v>
+        <v>71.22</v>
       </c>
       <c r="I13" t="n">
-        <v>4875</v>
+        <v>51.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,16 +978,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>845</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="E14" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -998,13 +996,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>88</v>
+        <v>0.79</v>
       </c>
       <c r="I14" t="n">
-        <v>7000</v>
+        <v>76.86</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1018,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>724</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1041,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2500</v>
+        <v>75</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1060,37 +1058,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2347</v>
+        <v>1114</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2982</v>
+        <v>9.07</v>
       </c>
       <c r="I16" t="n">
-        <v>4381</v>
+        <v>133.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="L16" t="n">
-        <v>3302</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="17">
@@ -1100,28 +1098,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>703</v>
+        <v>409</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,37 +1138,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>847</v>
+        <v>295</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="E18" t="n">
-        <v>203</v>
+        <v>314</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>1.6</v>
       </c>
       <c r="I18" t="n">
-        <v>3308</v>
+        <v>53.38</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>837</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="19">
@@ -1180,31 +1178,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1614</v>
+        <v>139</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>526</v>
+        <v>1.27</v>
       </c>
       <c r="I19" t="n">
-        <v>5907</v>
+        <v>104.7</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,28 +1218,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1739</v>
+        <v>655</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E20" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>4367</v>
+        <v>15.22</v>
       </c>
       <c r="I20" t="n">
-        <v>6603</v>
+        <v>73.44</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1260,31 +1258,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2793</v>
+        <v>1473</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14167</v>
+        <v>301.82</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,7 +1298,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681</v>
+        <v>321</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1309,16 +1307,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1340,16 +1338,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>717</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,16 +1378,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2246</v>
+        <v>1284</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1401,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>17143</v>
+        <v>240.91</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1418,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>787</v>
+        <v>403</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I25" t="n">
+        <v>53.33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>2</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3077</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5</v>
-      </c>
       <c r="L25" t="n">
-        <v>25</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="26">
@@ -1460,28 +1458,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>773</v>
+        <v>354</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>909</v>
+        <v>7.14</v>
       </c>
       <c r="I26" t="n">
-        <v>4000</v>
+        <v>83.33</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,28 +1498,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>812</v>
+        <v>325</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2143</v>
+        <v>24.39</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5866</v>
+        <v>5819</v>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="E2" t="n">
-        <v>538</v>
+        <v>1087</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>6488</v>
+        <v>8365</v>
       </c>
       <c r="I2" t="n">
-        <v>22556</v>
+        <v>20189</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>223</v>
+        <v>451</v>
       </c>
       <c r="L2" t="n">
-        <v>17958</v>
+        <v>19233</v>
       </c>
     </row>
     <row r="3">
@@ -546,25 +546,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>313</v>
+        <v>626</v>
       </c>
       <c r="E3" t="n">
-        <v>316</v>
+        <v>633</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
         <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>6989</v>
+        <v>7076</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="E5" t="n">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -638,13 +638,13 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="I5" t="n">
-        <v>7055</v>
+        <v>6651</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7143</v>
+        <v>7778</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="E8" t="n">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -758,10 +758,10 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I8" t="n">
-        <v>9237</v>
+        <v>9234</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -820,28 +820,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2189</v>
+        <v>2217</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
+        <v>31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>35</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
-        <v>16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1429</v>
-      </c>
       <c r="I10" t="n">
-        <v>19667</v>
+        <v>20341</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5207</v>
+        <v>5148</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E11" t="n">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1836</v>
+        <v>1646</v>
       </c>
       <c r="I11" t="n">
-        <v>24750</v>
+        <v>22793</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3092</v>
+        <v>3345</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6667</v>
+        <v>4828</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2072</v>
+        <v>2064</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>60</v>
       </c>
       <c r="I13" t="n">
-        <v>4875</v>
+        <v>5612</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -998,13 +998,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I14" t="n">
-        <v>7000</v>
+        <v>7011</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1063,34 +1063,34 @@
         <v>2347</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>259</v>
+        <v>502</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>2982</v>
+        <v>4557</v>
       </c>
       <c r="I16" t="n">
-        <v>4381</v>
+        <v>2894</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="L16" t="n">
-        <v>3302</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="17">
@@ -1100,25 +1100,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>703</v>
+        <v>747</v>
       </c>
       <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>1538</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1143,34 +1143,34 @@
         <v>847</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="E18" t="n">
-        <v>203</v>
+        <v>384</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2797</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1921</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
-        <v>18</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3308</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
       <c r="K18" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
-        <v>837</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E19" t="n">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="I19" t="n">
-        <v>5907</v>
+        <v>7105</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1739</v>
+        <v>1704</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2793</v>
+        <v>2747</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>40</v>
+        <v>3333</v>
       </c>
       <c r="I21" t="n">
-        <v>14167</v>
+        <v>12647</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50</v>
+        <v>3333</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2246</v>
+        <v>2258</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>17143</v>
+        <v>14584</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>667</v>
       </c>
       <c r="I25" t="n">
-        <v>3077</v>
+        <v>2500</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>25</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="26">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>909</v>
+        <v>882</v>
       </c>
       <c r="I26" t="n">
-        <v>4000</v>
+        <v>5161</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,28 +1500,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1389</v>
+        <v>2625</v>
       </c>
       <c r="I27" t="n">
-        <v>2143</v>
+        <v>1154</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5819</v>
+        <v>3673</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>317</v>
+        <v>561</v>
       </c>
       <c r="E2" t="n">
-        <v>1087</v>
+        <v>2482</v>
       </c>
       <c r="F2" t="n">
-        <v>263</v>
+        <v>943</v>
       </c>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>8365</v>
+        <v>14282</v>
       </c>
       <c r="I2" t="n">
-        <v>20189</v>
+        <v>15925</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>451</v>
+        <v>900</v>
       </c>
       <c r="L2" t="n">
-        <v>19233</v>
+        <v>16154</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>626</v>
+        <v>1.632</v>
       </c>
       <c r="E3" t="n">
-        <v>633</v>
+        <v>1.662</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>7076</v>
+        <v>5738</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480</v>
+        <v>271</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>849</v>
+        <v>803</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>231</v>
+        <v>476</v>
       </c>
       <c r="E5" t="n">
-        <v>234</v>
+        <v>485</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I5" t="n">
-        <v>6651</v>
+        <v>6224</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>779</v>
+        <v>272</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -669,16 +669,16 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>909</v>
+        <v>1667</v>
       </c>
       <c r="I6" t="n">
         <v>3000</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>737</v>
+        <v>268</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7778</v>
+        <v>5714</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852</v>
+        <v>775</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="E8" t="n">
-        <v>254</v>
+        <v>450</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="I8" t="n">
-        <v>9234</v>
+        <v>8927</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E9" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>8971</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2217</v>
+        <v>779</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>2273</v>
       </c>
       <c r="I10" t="n">
-        <v>20341</v>
+        <v>17701</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5148</v>
+        <v>1037</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>166</v>
+        <v>390</v>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>417</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1646</v>
+        <v>2708</v>
       </c>
       <c r="I11" t="n">
-        <v>22793</v>
+        <v>26871</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3345</v>
+        <v>858</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>74</v>
+      </c>
+      <c r="E12" t="n">
+        <v>75</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>34</v>
-      </c>
-      <c r="E12" t="n">
-        <v>35</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I12" t="n">
-        <v>4828</v>
+        <v>10000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2064</v>
+        <v>273</v>
       </c>
       <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>302</v>
+      </c>
+      <c r="E13" t="n">
+        <v>356</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>148</v>
-      </c>
-      <c r="E13" t="n">
-        <v>165</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" t="n">
-        <v>60</v>
+        <v>6372</v>
       </c>
       <c r="I13" t="n">
-        <v>5612</v>
+        <v>4912</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>845</v>
+        <v>804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="E14" t="n">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I14" t="n">
-        <v>7011</v>
+        <v>5876</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>699</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2347</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
         <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="E16" t="n">
-        <v>502</v>
+        <v>1129</v>
       </c>
       <c r="F16" t="n">
-        <v>113</v>
+        <v>462</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>4557</v>
+        <v>13859</v>
       </c>
       <c r="I16" t="n">
-        <v>2894</v>
+        <v>1736</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="L16" t="n">
-        <v>3194</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="17">
@@ -1100,25 +1100,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>747</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1538</v>
+        <v>3864</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>847</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="E18" t="n">
-        <v>384</v>
+        <v>793</v>
       </c>
       <c r="F18" t="n">
-        <v>106</v>
+        <v>339</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
-        <v>2797</v>
+        <v>4330</v>
       </c>
       <c r="I18" t="n">
-        <v>1921</v>
+        <v>1176</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="L18" t="n">
-        <v>781</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19">
@@ -1180,31 +1180,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1612</v>
+        <v>788</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>254</v>
+      </c>
+      <c r="E19" t="n">
+        <v>278</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>968</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4486</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>109</v>
-      </c>
-      <c r="E19" t="n">
-        <v>113</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>326</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7105</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1704</v>
+        <v>1405</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2747</v>
+        <v>502</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3333</v>
+        <v>8404</v>
       </c>
       <c r="I21" t="n">
-        <v>12647</v>
+        <v>25094</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680</v>
+        <v>194</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1309,16 +1309,16 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3333</v>
+        <v>50</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>733</v>
+        <v>813</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10000</v>
+        <v>6957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2258</v>
+        <v>1010</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="I24" t="n">
-        <v>14584</v>
+        <v>10047</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>805</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E25" t="n">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>667</v>
+        <v>1053</v>
       </c>
       <c r="I25" t="n">
-        <v>2500</v>
+        <v>1846</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="L25" t="n">
-        <v>1333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1460,31 +1460,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>801</v>
+        <v>140</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>882</v>
+        <v>714</v>
       </c>
       <c r="I26" t="n">
-        <v>5161</v>
+        <v>6184</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1500,28 +1500,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E27" t="n">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2625</v>
+        <v>4381</v>
       </c>
       <c r="I27" t="n">
-        <v>1154</v>
+        <v>561</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3854</v>
+        <v>4175</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>378</v>
+        <v>294</v>
       </c>
       <c r="E2" t="n">
-        <v>1539</v>
+        <v>619</v>
       </c>
       <c r="F2" t="n">
-        <v>483</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>9547</v>
+        <v>1015</v>
       </c>
       <c r="I2" t="n">
-        <v>13414</v>
+        <v>26791</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>649</v>
+        <v>306</v>
       </c>
       <c r="L2" t="n">
-        <v>12228</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="3">
@@ -540,37 +540,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>821</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>522</v>
+      </c>
+      <c r="E3" t="n">
+        <v>523</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.147</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.177</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
       <c r="H3" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4490</v>
+        <v>9093</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -580,31 +580,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3017</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>404</v>
+        <v>212</v>
       </c>
       <c r="E5" t="n">
-        <v>407</v>
+        <v>214</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5935</v>
+        <v>8915</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3086</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>833</v>
+        <v>6154</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -700,28 +700,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="I7" t="n">
-        <v>6250</v>
+        <v>1667</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="I8" t="n">
-        <v>8356</v>
+        <v>8633</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8182</v>
+        <v>9643</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,28 +820,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
         <v>55</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>769</v>
+        <v>1679</v>
       </c>
       <c r="I10" t="n">
-        <v>16667</v>
+        <v>18111</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1033</v>
+        <v>782</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="E11" t="n">
-        <v>295</v>
+        <v>227</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>99</v>
+        <v>2568</v>
       </c>
       <c r="I11" t="n">
-        <v>66494</v>
+        <v>48087</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>857</v>
+        <v>761</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>30000</v>
+        <v>27056</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>261</v>
+        <v>544</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="E13" t="n">
         <v>248</v>
       </c>
       <c r="F13" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6234</v>
+        <v>2183</v>
       </c>
       <c r="I13" t="n">
-        <v>1588</v>
+        <v>4839</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27</v>
+        <v>804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="E14" t="n">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>5975</v>
+        <v>9261</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2656</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>652</v>
+        <v>5714</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>215</v>
+        <v>289</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>338</v>
+      </c>
+      <c r="E16" t="n">
+        <v>432</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>285</v>
-      </c>
-      <c r="E16" t="n">
-        <v>643</v>
-      </c>
-      <c r="F16" t="n">
-        <v>211</v>
-      </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>6802</v>
+        <v>421</v>
       </c>
       <c r="I16" t="n">
-        <v>933</v>
+        <v>13843</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="L16" t="n">
-        <v>2566</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="17">
@@ -1100,28 +1100,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="I17" t="n">
-        <v>500</v>
+        <v>4286</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>320</v>
+      </c>
+      <c r="E18" t="n">
+        <v>362</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="D18" t="n">
-        <v>354</v>
-      </c>
-      <c r="E18" t="n">
-        <v>622</v>
-      </c>
-      <c r="F18" t="n">
-        <v>195</v>
-      </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3186</v>
+        <v>110</v>
       </c>
       <c r="I18" t="n">
-        <v>1105</v>
+        <v>6006</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="L18" t="n">
-        <v>949</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="19">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1521</v>
+        <v>1511</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>236</v>
+        <v>124</v>
       </c>
       <c r="E19" t="n">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1126</v>
+        <v>95</v>
       </c>
       <c r="I19" t="n">
-        <v>3704</v>
+        <v>12538</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1402</v>
+        <v>1374</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E20" t="n">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2491</v>
+        <v>5377</v>
       </c>
       <c r="I20" t="n">
-        <v>5878</v>
+        <v>6717</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>502</v>
+        <v>416</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2362</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11131</v>
+        <v>30784</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3158</v>
+        <v>6667</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1011</v>
+        <v>938</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3472</v>
+        <v>1429</v>
       </c>
       <c r="I24" t="n">
-        <v>2143</v>
+        <v>15476</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E25" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>779</v>
+        <v>556</v>
       </c>
       <c r="I25" t="n">
-        <v>930</v>
+        <v>1379</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
-        <v>3636</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="26">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1538</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>71</v>
+      </c>
+      <c r="E27" t="n">
+        <v>76</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>658</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1690</v>
+      </c>
+      <c r="J27" t="n">
         <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>98</v>
-      </c>
-      <c r="E27" t="n">
-        <v>158</v>
-      </c>
-      <c r="F27" t="n">
-        <v>59</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3734</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4175</v>
+        <v>3653</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>294</v>
+        <v>650</v>
       </c>
       <c r="E2" t="n">
-        <v>619</v>
+        <v>1656</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1015</v>
+        <v>3746</v>
       </c>
       <c r="I2" t="n">
-        <v>26791</v>
+        <v>22119</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K2" t="n">
-        <v>306</v>
+        <v>825</v>
       </c>
       <c r="L2" t="n">
-        <v>18527</v>
+        <v>18065</v>
       </c>
     </row>
     <row r="3">
@@ -546,25 +546,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>522</v>
+        <v>1.322</v>
       </c>
       <c r="E3" t="n">
-        <v>523</v>
+        <v>1.327</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
-        <v>9093</v>
+        <v>8279</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212</v>
+        <v>404</v>
       </c>
       <c r="E5" t="n">
-        <v>214</v>
+        <v>406</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8915</v>
+        <v>8809</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6154</v>
+        <v>6000</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1429</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>1667</v>
+        <v>2222</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>266</v>
+        <v>498</v>
       </c>
       <c r="E8" t="n">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I8" t="n">
-        <v>8633</v>
+        <v>8786</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9643</v>
+        <v>8971</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738</v>
+        <v>323</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2722</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16981</v>
+      </c>
+      <c r="J10" t="n">
         <v>5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1679</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18111</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>782</v>
+        <v>1012</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>214</v>
+        <v>465</v>
       </c>
       <c r="E11" t="n">
-        <v>227</v>
+        <v>487</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2568</v>
+        <v>4245</v>
       </c>
       <c r="I11" t="n">
-        <v>48087</v>
+        <v>42666</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761</v>
+        <v>842</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="I12" t="n">
-        <v>27056</v>
+        <v>25873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544</v>
+        <v>264</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>232</v>
+        <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>248</v>
+        <v>469</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>2183</v>
+        <v>2541</v>
       </c>
       <c r="I13" t="n">
-        <v>4839</v>
+        <v>5752</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -986,25 +986,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>9261</v>
+        <v>9245</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>338</v>
+        <v>710</v>
       </c>
       <c r="E16" t="n">
-        <v>432</v>
+        <v>1007</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>421</v>
+        <v>3121</v>
       </c>
       <c r="I16" t="n">
-        <v>13843</v>
+        <v>10049</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="L16" t="n">
-        <v>2358</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="17">
@@ -1100,37 +1100,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>833</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2381</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4286</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18">
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>320</v>
+        <v>672</v>
       </c>
       <c r="E18" t="n">
-        <v>362</v>
+        <v>815</v>
       </c>
       <c r="F18" t="n">
+        <v>57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>700</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4747</v>
+      </c>
+      <c r="J18" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>110</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6006</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
       <c r="K18" t="n">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="L18" t="n">
-        <v>1077</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c r="E19" t="n">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>95</v>
+        <v>597</v>
       </c>
       <c r="I19" t="n">
-        <v>12538</v>
+        <v>9214</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1374</v>
+        <v>1393</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E21" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="I21" t="n">
-        <v>30784</v>
+        <v>30003</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6667</v>
+        <v>5385</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>938</v>
+        <v>999</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>769</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13590</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1429</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15476</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>556</v>
+        <v>769</v>
       </c>
       <c r="I25" t="n">
-        <v>1379</v>
+        <v>1887</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L25" t="n">
-        <v>3704</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="26">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1538</v>
+        <v>714</v>
       </c>
       <c r="I26" t="n">
-        <v>4286</v>
+        <v>6349</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="E27" t="n">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>658</v>
+        <v>1841</v>
       </c>
       <c r="I27" t="n">
-        <v>1690</v>
+        <v>1411</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3653</v>
+        <v>4046</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>650</v>
+        <v>112</v>
       </c>
       <c r="E2" t="n">
-        <v>1656</v>
+        <v>268</v>
       </c>
       <c r="F2" t="n">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3746</v>
+        <v>1775</v>
       </c>
       <c r="I2" t="n">
-        <v>22119</v>
+        <v>22264</v>
       </c>
       <c r="J2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>825</v>
+        <v>135</v>
       </c>
       <c r="L2" t="n">
-        <v>18065</v>
+        <v>14456</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>821</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.322</v>
+        <v>238</v>
       </c>
       <c r="E3" t="n">
-        <v>1.327</v>
+        <v>238</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8279</v>
+        <v>7229</v>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>6129</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="E5" t="n">
-        <v>406</v>
+        <v>119</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8559</v>
+      </c>
+      <c r="J5" t="n">
         <v>2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8809</v>
-      </c>
-      <c r="J5" t="n">
-        <v>12</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>6000</v>
+        <v>5714</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2222</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="E8" t="n">
-        <v>507</v>
+        <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>79</v>
+        <v>638</v>
       </c>
       <c r="I8" t="n">
-        <v>8786</v>
+        <v>2297</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8971</v>
+        <v>6000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>323</v>
+        <v>774</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2722</v>
+        <v>3333</v>
       </c>
       <c r="I10" t="n">
-        <v>16981</v>
+        <v>18333</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>465</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
-        <v>487</v>
+        <v>73</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4245</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>42666</v>
+        <v>57777</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>25873</v>
+        <v>30000</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>432</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>469</v>
+        <v>101</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3187</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5519</v>
+      </c>
+      <c r="J13" t="n">
         <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2541</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5752</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="E14" t="n">
-        <v>371</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>109</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>27</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9245</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="I15" t="n">
-        <v>5714</v>
+        <v>4231</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>131</v>
+      </c>
+      <c r="E16" t="n">
+        <v>183</v>
+      </c>
+      <c r="F16" t="n">
         <v>13</v>
       </c>
-      <c r="D16" t="n">
-        <v>710</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1007</v>
-      </c>
-      <c r="F16" t="n">
-        <v>56</v>
-      </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3121</v>
+        <v>2180</v>
       </c>
       <c r="I16" t="n">
-        <v>10049</v>
+        <v>12336</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="L16" t="n">
-        <v>2607</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="17">
@@ -1100,28 +1100,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2381</v>
+        <v>3333</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>417</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="18">
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>672</v>
+        <v>143</v>
       </c>
       <c r="E18" t="n">
-        <v>815</v>
+        <v>178</v>
       </c>
       <c r="F18" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>700</v>
+        <v>618</v>
       </c>
       <c r="I18" t="n">
-        <v>4747</v>
+        <v>5734</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
-        <v>920</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="19">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1515</v>
+        <v>780</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>251</v>
+        <v>59</v>
       </c>
       <c r="E19" t="n">
-        <v>256</v>
+        <v>63</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>597</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>9214</v>
+        <v>6330</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5377</v>
+        <v>8800</v>
       </c>
       <c r="I20" t="n">
-        <v>6717</v>
+        <v>14576</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1250</v>
+        <v>25</v>
       </c>
       <c r="I21" t="n">
-        <v>30003</v>
+        <v>11111</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5385</v>
+        <v>2500</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>769</v>
+        <v>20</v>
       </c>
       <c r="I24" t="n">
-        <v>13590</v>
+        <v>10357</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3913</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
         <v>8</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>769</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1887</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>43</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4135</v>
       </c>
     </row>
     <row r="26">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6349</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>33</v>
+      </c>
+      <c r="E27" t="n">
+        <v>37</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="n">
-        <v>164</v>
-      </c>
-      <c r="E27" t="n">
-        <v>201</v>
-      </c>
-      <c r="F27" t="n">
-        <v>37</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
-        <v>1841</v>
+        <v>833</v>
       </c>
       <c r="I27" t="n">
-        <v>1411</v>
+        <v>2424</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4046</v>
+        <v>4079</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>112</v>
+        <v>430</v>
       </c>
       <c r="E2" t="n">
-        <v>268</v>
+        <v>981</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1775</v>
+        <v>1421</v>
       </c>
       <c r="I2" t="n">
-        <v>22264</v>
+        <v>21701</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
-        <v>135</v>
+        <v>497</v>
       </c>
       <c r="L2" t="n">
-        <v>14456</v>
+        <v>14496</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>821</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>238</v>
+        <v>852</v>
       </c>
       <c r="E3" t="n">
-        <v>238</v>
+        <v>867</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I3" t="n">
-        <v>7229</v>
+        <v>7568</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,31 +580,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="I4" t="n">
-        <v>6129</v>
+        <v>4846</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="E5" t="n">
-        <v>119</v>
+        <v>377</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8559</v>
+        <v>8061</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="I6" t="n">
-        <v>5714</v>
+        <v>5105</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>638</v>
+        <v>1559</v>
       </c>
       <c r="I8" t="n">
-        <v>2297</v>
+        <v>2397</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6000</v>
+        <v>7857</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,28 +820,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3333</v>
+        <v>1611</v>
       </c>
       <c r="I10" t="n">
-        <v>18333</v>
+        <v>17118</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="E11" t="n">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>1985</v>
       </c>
       <c r="I11" t="n">
-        <v>57777</v>
+        <v>57005</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>30000</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>253</v>
+        <v>575</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="E13" t="n">
-        <v>101</v>
+        <v>325</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3187</v>
+        <v>4560</v>
       </c>
       <c r="I13" t="n">
-        <v>5519</v>
+        <v>4028</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="E14" t="n">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="I14" t="n">
-        <v>9000</v>
+        <v>8539</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="I15" t="n">
-        <v>4231</v>
+        <v>5000</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>131</v>
+        <v>424</v>
       </c>
       <c r="E16" t="n">
-        <v>183</v>
+        <v>615</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2180</v>
+        <v>3501</v>
       </c>
       <c r="I16" t="n">
-        <v>12336</v>
+        <v>10764</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="L16" t="n">
-        <v>2901</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="17">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3333</v>
+        <v>5385</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1429</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>143</v>
+        <v>529</v>
       </c>
       <c r="E18" t="n">
-        <v>178</v>
+        <v>627</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>618</v>
+        <v>399</v>
       </c>
       <c r="I18" t="n">
-        <v>5734</v>
+        <v>5501</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="L18" t="n">
-        <v>1292</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="19">
@@ -1180,31 +1180,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="E19" t="n">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>284</v>
       </c>
       <c r="I19" t="n">
-        <v>6330</v>
+        <v>5018</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>484</v>
+        <v>295</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>25</v>
+        <v>1250</v>
       </c>
       <c r="I21" t="n">
-        <v>11111</v>
+        <v>13770</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1340,28 +1340,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="I23" t="n">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>20</v>
+        <v>1710</v>
       </c>
       <c r="I24" t="n">
-        <v>10357</v>
+        <v>16002</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="I25" t="n">
-        <v>3913</v>
+        <v>4063</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="E27" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>833</v>
+        <v>769</v>
       </c>
       <c r="I27" t="n">
-        <v>2424</v>
+        <v>1810</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4079</v>
+        <v>3903</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>430</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>981</v>
+        <v>180</v>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1421</v>
+        <v>1096</v>
       </c>
       <c r="I2" t="n">
-        <v>21701</v>
+        <v>40465</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>497</v>
+        <v>95</v>
       </c>
       <c r="L2" t="n">
-        <v>14496</v>
+        <v>14656</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>821</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>852</v>
+        <v>352</v>
       </c>
       <c r="E3" t="n">
-        <v>867</v>
+        <v>353</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7568</v>
+        <v>8617</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,31 +580,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4846</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="E5" t="n">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8061</v>
+        <v>8830</v>
       </c>
       <c r="J5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5105</v>
+        <v>8000</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>8571</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
-        <v>306</v>
+        <v>154</v>
       </c>
       <c r="F8" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>1559</v>
+        <v>408</v>
       </c>
       <c r="I8" t="n">
-        <v>2397</v>
+        <v>4733</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7857</v>
+        <v>9643</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1611</v>
+        <v>1364</v>
       </c>
       <c r="I10" t="n">
-        <v>17118</v>
+        <v>18882</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>984</v>
+        <v>1046</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="E11" t="n">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="F11" t="n">
+        <v>9</v>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>1985</v>
+        <v>2362</v>
       </c>
       <c r="I11" t="n">
-        <v>57005</v>
+        <v>40293</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30000</v>
+        <v>15256</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>575</v>
+        <v>264</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="E13" t="n">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="F13" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4560</v>
+        <v>4739</v>
       </c>
       <c r="I13" t="n">
-        <v>4028</v>
+        <v>5620</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="E14" t="n">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8539</v>
+        <v>9225</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
@@ -1020,31 +1020,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>424</v>
+        <v>231</v>
       </c>
       <c r="E16" t="n">
-        <v>615</v>
+        <v>257</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3501</v>
+        <v>1902</v>
       </c>
       <c r="I16" t="n">
-        <v>10764</v>
+        <v>15036</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="L16" t="n">
-        <v>3349</v>
+        <v>909</v>
       </c>
     </row>
     <row r="17">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1121,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5385</v>
+        <v>7500</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>529</v>
+        <v>246</v>
       </c>
       <c r="E18" t="n">
-        <v>627</v>
+        <v>259</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="I18" t="n">
-        <v>5501</v>
+        <v>8082</v>
       </c>
       <c r="J18" t="n">
+        <v>8</v>
+      </c>
+      <c r="K18" t="n">
         <v>10</v>
       </c>
-      <c r="K18" t="n">
-        <v>73</v>
-      </c>
       <c r="L18" t="n">
-        <v>1164</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
@@ -1180,31 +1180,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>93</v>
+      </c>
+      <c r="E19" t="n">
+        <v>94</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" t="n">
-        <v>195</v>
-      </c>
-      <c r="E19" t="n">
-        <v>203</v>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="I19" t="n">
-        <v>5018</v>
+        <v>9307</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1396</v>
+        <v>1407</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="E20" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>8800</v>
+        <v>2059</v>
       </c>
       <c r="I20" t="n">
-        <v>14576</v>
+        <v>4336</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>295</v>
+        <v>507</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E21" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>13770</v>
+        <v>20238</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8750</v>
+      </c>
+      <c r="J23" t="n">
         <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>625</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8000</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988</v>
+        <v>1013</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16002</v>
+        <v>9286</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E25" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4063</v>
+        <v>7391</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="E27" t="n">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>769</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1810</v>
+        <v>5366</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3903</v>
+        <v>3987</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>75</v>
+        <v>229</v>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>535</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1096</v>
+        <v>891</v>
       </c>
       <c r="I2" t="n">
-        <v>40465</v>
+        <v>31702</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>14656</v>
+        <v>15833</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>821</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>352</v>
+        <v>821</v>
       </c>
       <c r="E3" t="n">
-        <v>353</v>
+        <v>822</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8617</v>
+        <v>8786</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E5" t="n">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8830</v>
+        <v>9014</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8571</v>
+        <v>6154</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>772</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>131</v>
+        <v>302</v>
       </c>
       <c r="E8" t="n">
-        <v>154</v>
+        <v>329</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>408</v>
+        <v>621</v>
       </c>
       <c r="I8" t="n">
-        <v>4733</v>
+        <v>3775</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9643</v>
+        <v>9014</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,28 +820,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785</v>
+        <v>576</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1364</v>
+        <v>1429</v>
       </c>
       <c r="I10" t="n">
-        <v>18882</v>
+        <v>18772</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1046</v>
+        <v>754</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="E11" t="n">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>2362</v>
+        <v>2967</v>
       </c>
       <c r="I11" t="n">
-        <v>40293</v>
+        <v>32145</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>866</v>
+        <v>427</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="I12" t="n">
-        <v>15256</v>
+        <v>15882</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -940,37 +940,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="E13" t="n">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>4739</v>
+        <v>3963</v>
       </c>
       <c r="I13" t="n">
-        <v>5620</v>
+        <v>6822</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="E14" t="n">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
-        <v>9225</v>
+        <v>9118</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>518</v>
+      </c>
+      <c r="E16" t="n">
+        <v>617</v>
+      </c>
+      <c r="F16" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="n">
-        <v>231</v>
-      </c>
-      <c r="E16" t="n">
-        <v>257</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
-        <v>1902</v>
+        <v>776</v>
       </c>
       <c r="I16" t="n">
-        <v>15036</v>
+        <v>15334</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="L16" t="n">
-        <v>909</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="17">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7500</v>
+        <v>7143</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>246</v>
+        <v>516</v>
       </c>
       <c r="E18" t="n">
-        <v>259</v>
+        <v>554</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I18" t="n">
-        <v>8082</v>
+        <v>7665</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="L18" t="n">
-        <v>386</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788</v>
+        <v>771</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="E19" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="I19" t="n">
-        <v>9307</v>
+        <v>9338</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1407</v>
+        <v>1383</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>507</v>
+        <v>364</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20238</v>
+        <v>17700</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10000</v>
+        <v>3333</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8750</v>
+        <v>6667</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1013</v>
+        <v>897</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9286</v>
+        <v>9878</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I25" t="n">
-        <v>7391</v>
+        <v>5082</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
         <v>2</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1053</v>
+        <v>435</v>
       </c>
       <c r="I26" t="n">
-        <v>7059</v>
+        <v>7442</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1500,28 +1500,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E27" t="n">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="I27" t="n">
-        <v>5366</v>
+        <v>4242</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3987</v>
+        <v>3870</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="E2" t="n">
-        <v>535</v>
+        <v>354</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>891</v>
+        <v>842</v>
       </c>
       <c r="I2" t="n">
-        <v>31702</v>
+        <v>21222</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="L2" t="n">
-        <v>15833</v>
+        <v>19073</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>821</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>821</v>
+        <v>179</v>
       </c>
       <c r="E3" t="n">
-        <v>822</v>
+        <v>182</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>8786</v>
+        <v>8315</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>803</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="E5" t="n">
-        <v>336</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9014</v>
+        <v>9167</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="I6" t="n">
-        <v>8000</v>
+        <v>3871</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6154</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="E8" t="n">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>621</v>
+        <v>638</v>
       </c>
       <c r="I8" t="n">
-        <v>3775</v>
+        <v>3735</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9014</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>576</v>
+        <v>773</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1429</v>
+        <v>1458</v>
       </c>
       <c r="I10" t="n">
-        <v>18772</v>
+        <v>19448</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>754</v>
+        <v>962</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="E11" t="n">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2967</v>
+        <v>1423</v>
       </c>
       <c r="I11" t="n">
-        <v>32145</v>
+        <v>33884</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>427</v>
+        <v>840</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>27</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
       <c r="H12" t="n">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15882</v>
+        <v>8000</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,37 +940,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461</v>
+        <v>251</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>325</v>
+        <v>129</v>
       </c>
       <c r="E13" t="n">
-        <v>378</v>
+        <v>195</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3963</v>
+        <v>3952</v>
       </c>
       <c r="I13" t="n">
-        <v>6822</v>
+        <v>3839</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -986,25 +986,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="E14" t="n">
-        <v>275</v>
+        <v>68</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9118</v>
+        <v>9167</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8000</v>
+        <v>3077</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="E16" t="n">
-        <v>617</v>
+        <v>190</v>
       </c>
       <c r="F16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>776</v>
+        <v>4035</v>
       </c>
       <c r="I16" t="n">
-        <v>15334</v>
+        <v>14604</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="L16" t="n">
-        <v>1528</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="17">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7143</v>
+        <v>5217</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
         <v>5</v>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
       <c r="D18" t="n">
-        <v>516</v>
+        <v>213</v>
       </c>
       <c r="E18" t="n">
-        <v>554</v>
+        <v>243</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="I18" t="n">
-        <v>7665</v>
+        <v>5822</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="L18" t="n">
-        <v>596</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="E19" t="n">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>197</v>
+        <v>563</v>
       </c>
       <c r="I19" t="n">
-        <v>9338</v>
+        <v>6915</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1383</v>
+        <v>1401</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E20" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2059</v>
+        <v>2137</v>
       </c>
       <c r="I20" t="n">
-        <v>4336</v>
+        <v>13261</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>364</v>
+        <v>483</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1281,10 +1281,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>17700</v>
+        <v>28667</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3333</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6667</v>
+        <v>10000</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>897</v>
+        <v>995</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9878</v>
+        <v>18750</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5082</v>
+        <v>5385</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>308</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="26">
@@ -1460,31 +1460,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>435</v>
+        <v>30</v>
       </c>
       <c r="I26" t="n">
-        <v>7442</v>
+        <v>4286</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1500,28 +1500,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>550</v>
+        <v>1429</v>
       </c>
       <c r="I27" t="n">
-        <v>4242</v>
+        <v>3000</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3870</v>
+        <v>3642</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>477</v>
       </c>
       <c r="E2" t="n">
-        <v>354</v>
+        <v>1430</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>842</v>
+        <v>2818</v>
       </c>
       <c r="I2" t="n">
-        <v>21222</v>
+        <v>16631</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>181</v>
+        <v>802</v>
       </c>
       <c r="L2" t="n">
-        <v>19073</v>
+        <v>22002</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>821</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>179</v>
+        <v>732</v>
       </c>
       <c r="E3" t="n">
-        <v>182</v>
+        <v>739</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I3" t="n">
-        <v>8315</v>
+        <v>7779</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>804</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9167</v>
+        <v>8429</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="I6" t="n">
         <v>3871</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5455</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>773</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="E8" t="n">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>638</v>
+        <v>514</v>
       </c>
       <c r="I8" t="n">
-        <v>3735</v>
+        <v>3583</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,28 +780,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>8929</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773</v>
+        <v>583</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1458</v>
+        <v>650</v>
       </c>
       <c r="I10" t="n">
-        <v>19448</v>
+        <v>16479</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>303</v>
+      </c>
+      <c r="E11" t="n">
+        <v>311</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="D11" t="n">
-        <v>111</v>
-      </c>
-      <c r="E11" t="n">
-        <v>116</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>1423</v>
+        <v>1259</v>
       </c>
       <c r="I11" t="n">
-        <v>33884</v>
+        <v>23313</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="I12" t="n">
-        <v>8000</v>
+        <v>12286</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>129</v>
+        <v>471</v>
       </c>
       <c r="E13" t="n">
-        <v>195</v>
+        <v>598</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3952</v>
+        <v>4318</v>
       </c>
       <c r="I13" t="n">
-        <v>3839</v>
+        <v>5980</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="E14" t="n">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9167</v>
+        <v>8040</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>190</v>
+        <v>679</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4035</v>
+        <v>4732</v>
       </c>
       <c r="I16" t="n">
-        <v>14604</v>
+        <v>8088</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="L16" t="n">
-        <v>2370</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="17">
@@ -1100,28 +1100,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="I17" t="n">
-        <v>5217</v>
+        <v>4118</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>213</v>
+        <v>624</v>
       </c>
       <c r="E18" t="n">
-        <v>243</v>
+        <v>761</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>207</v>
+        <v>808</v>
       </c>
       <c r="I18" t="n">
-        <v>5822</v>
+        <v>4023</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="L18" t="n">
-        <v>741</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19">
@@ -1180,31 +1180,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782</v>
+        <v>1513</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>563</v>
+        <v>2542</v>
       </c>
       <c r="I19" t="n">
-        <v>6915</v>
+        <v>4808</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E21" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="I21" t="n">
-        <v>28667</v>
+        <v>24369</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1300,25 +1300,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>6667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,28 +1380,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="I24" t="n">
-        <v>18750</v>
+        <v>12319</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="I25" t="n">
-        <v>5385</v>
+        <v>3455</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
-        <v>1034</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="26">
@@ -1460,31 +1460,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>30</v>
+        <v>588</v>
       </c>
       <c r="I26" t="n">
-        <v>4286</v>
+        <v>7917</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37</v>
+      </c>
+      <c r="E27" t="n">
+        <v>53</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="D27" t="n">
-        <v>10</v>
-      </c>
-      <c r="E27" t="n">
-        <v>14</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
-        <v>1429</v>
+        <v>2157</v>
       </c>
       <c r="I27" t="n">
-        <v>3000</v>
+        <v>2162</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3642</v>
+        <v>4375</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>477</v>
+        <v>661</v>
       </c>
       <c r="E2" t="n">
-        <v>1430</v>
+        <v>1874</v>
       </c>
       <c r="F2" t="n">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>2818</v>
+        <v>2787</v>
       </c>
       <c r="I2" t="n">
-        <v>16631</v>
+        <v>15027</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>802</v>
+        <v>1051</v>
       </c>
       <c r="L2" t="n">
-        <v>22002</v>
+        <v>20955</v>
       </c>
     </row>
     <row r="3">
@@ -540,31 +540,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>821</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>732</v>
+        <v>1.016</v>
       </c>
       <c r="E3" t="n">
-        <v>739</v>
+        <v>1.027</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>7779</v>
+        <v>7449</v>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>804</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="E5" t="n">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -641,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8429</v>
+        <v>8187</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
@@ -681,7 +681,7 @@
         <v>303</v>
       </c>
       <c r="I6" t="n">
-        <v>3871</v>
+        <v>3750</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>5455</v>
+        <v>7500</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E8" t="n">
-        <v>256</v>
+        <v>318</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>514</v>
+        <v>476</v>
       </c>
       <c r="I8" t="n">
-        <v>3583</v>
+        <v>3188</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="I9" t="n">
-        <v>8929</v>
+        <v>8696</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>583</v>
+        <v>745</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="E10" t="n">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="F10" t="n">
         <v>3</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>650</v>
+        <v>516</v>
       </c>
       <c r="I10" t="n">
-        <v>16479</v>
+        <v>16513</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>978</v>
+        <v>909</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>303</v>
+        <v>420</v>
       </c>
       <c r="E11" t="n">
-        <v>311</v>
+        <v>438</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1259</v>
+        <v>4144</v>
       </c>
       <c r="I11" t="n">
-        <v>23313</v>
+        <v>25843</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>821</v>
+        <v>773</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>938</v>
+        <v>732</v>
       </c>
       <c r="I12" t="n">
-        <v>12286</v>
+        <v>13633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247</v>
+        <v>550</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>471</v>
+        <v>634</v>
       </c>
       <c r="E13" t="n">
-        <v>598</v>
+        <v>783</v>
       </c>
       <c r="F13" t="n">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>4318</v>
+        <v>4630</v>
       </c>
       <c r="I13" t="n">
-        <v>5980</v>
+        <v>5638</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -980,31 +980,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="E14" t="n">
-        <v>251</v>
+        <v>364</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>8040</v>
+        <v>8012</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>435</v>
+        <v>585</v>
       </c>
       <c r="E16" t="n">
-        <v>679</v>
+        <v>867</v>
       </c>
       <c r="F16" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4732</v>
+        <v>5444</v>
       </c>
       <c r="I16" t="n">
-        <v>8088</v>
+        <v>9176</v>
       </c>
       <c r="J16" t="n">
         <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="L16" t="n">
-        <v>2835</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="17">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
@@ -1118,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>556</v>
+        <v>435</v>
       </c>
       <c r="I17" t="n">
-        <v>4118</v>
+        <v>3864</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>624</v>
+        <v>843</v>
       </c>
       <c r="E18" t="n">
-        <v>761</v>
+        <v>997</v>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="I18" t="n">
-        <v>4023</v>
+        <v>4256</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="L18" t="n">
-        <v>841</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1513</v>
+        <v>763</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>201</v>
+        <v>262</v>
       </c>
       <c r="E19" t="n">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="F19" t="n">
         <v>24</v>
@@ -1198,13 +1198,13 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2542</v>
+        <v>1980</v>
       </c>
       <c r="I19" t="n">
-        <v>4808</v>
+        <v>6901</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1017</v>
+        <v>3065</v>
       </c>
       <c r="I21" t="n">
-        <v>24369</v>
+        <v>22337</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9000</v>
+        <v>9231</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>983</v>
+        <v>946</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="I24" t="n">
-        <v>12319</v>
+        <v>12593</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="E25" t="n">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="F25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1481</v>
+        <v>1261</v>
       </c>
       <c r="I25" t="n">
-        <v>3455</v>
+        <v>3721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>1605</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E26" t="n">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F26" t="n">
         <v>3</v>
@@ -1478,13 +1478,13 @@
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>588</v>
+        <v>423</v>
       </c>
       <c r="I26" t="n">
-        <v>7917</v>
+        <v>7761</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1500,28 +1500,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>2157</v>
+        <v>2090</v>
       </c>
       <c r="I27" t="n">
-        <v>2162</v>
+        <v>2222</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4375</v>
+        <v>4333</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>661</v>
+        <v>268</v>
       </c>
       <c r="E2" t="n">
-        <v>1874</v>
+        <v>728</v>
       </c>
       <c r="F2" t="n">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2787</v>
+        <v>2014</v>
       </c>
       <c r="I2" t="n">
-        <v>15027</v>
+        <v>13472</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1051</v>
+        <v>407</v>
       </c>
       <c r="L2" t="n">
-        <v>20955</v>
+        <v>16061</v>
       </c>
     </row>
     <row r="3">
@@ -546,31 +546,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.016</v>
+        <v>446</v>
       </c>
       <c r="E3" t="n">
-        <v>1.027</v>
+        <v>452</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="I3" t="n">
-        <v>7449</v>
+        <v>8028</v>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -580,31 +580,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4932</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>803</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>373</v>
+        <v>261</v>
       </c>
       <c r="E5" t="n">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="I5" t="n">
-        <v>8187</v>
+        <v>7432</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
       <c r="H6" t="n">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="I6" t="n">
-        <v>3750</v>
+        <v>5203</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7500</v>
+        <v>6667</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="E8" t="n">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>476</v>
+        <v>829</v>
       </c>
       <c r="I8" t="n">
-        <v>3188</v>
+        <v>2651</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,28 +780,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8696</v>
+        <v>9545</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>745</v>
+        <v>559</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1623</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22943</v>
+      </c>
+      <c r="J10" t="n">
         <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>516</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16513</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>909</v>
+        <v>878</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>420</v>
+        <v>159</v>
       </c>
       <c r="E11" t="n">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4144</v>
+        <v>843</v>
       </c>
       <c r="I11" t="n">
-        <v>25843</v>
+        <v>66784</v>
       </c>
       <c r="J11" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,31 +900,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>773</v>
+        <v>755</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18947</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>732</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13633</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550</v>
+        <v>447</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>634</v>
+        <v>203</v>
       </c>
       <c r="E13" t="n">
-        <v>783</v>
+        <v>252</v>
       </c>
       <c r="F13" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>4630</v>
+        <v>4794</v>
       </c>
       <c r="I13" t="n">
-        <v>5638</v>
+        <v>5832</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -986,25 +986,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>363</v>
+        <v>161</v>
       </c>
       <c r="E14" t="n">
-        <v>364</v>
+        <v>163</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8012</v>
+        <v>8734</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I15" t="n">
-        <v>3077</v>
+        <v>4754</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>585</v>
+        <v>341</v>
       </c>
       <c r="E16" t="n">
-        <v>867</v>
+        <v>453</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>5444</v>
+        <v>2888</v>
       </c>
       <c r="I16" t="n">
-        <v>9176</v>
+        <v>8243</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="L16" t="n">
-        <v>2778</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1100,37 +1100,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>435</v>
+        <v>870</v>
       </c>
       <c r="I17" t="n">
-        <v>3864</v>
+        <v>4032</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>843</v>
+        <v>511</v>
       </c>
       <c r="E18" t="n">
-        <v>997</v>
+        <v>584</v>
       </c>
       <c r="F18" t="n">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>787</v>
+        <v>515</v>
       </c>
       <c r="I18" t="n">
-        <v>4256</v>
+        <v>5949</v>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K18" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="L18" t="n">
-        <v>732</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19">
@@ -1180,28 +1180,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763</v>
+        <v>1511</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="E19" t="n">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="F19" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1980</v>
+        <v>807</v>
       </c>
       <c r="I19" t="n">
-        <v>6901</v>
+        <v>10238</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E20" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="F20" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2137</v>
+        <v>6468</v>
       </c>
       <c r="I20" t="n">
-        <v>13261</v>
+        <v>1207</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1260,31 +1260,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3065</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>22337</v>
+        <v>24452</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,25 +1300,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9231</v>
+        <v>6667</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J24" t="n">
         <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>357</v>
-      </c>
-      <c r="I24" t="n">
-        <v>12593</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>57</v>
+      </c>
+      <c r="E25" t="n">
+        <v>69</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>435</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3860</v>
+      </c>
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" t="n">
-        <v>86</v>
-      </c>
-      <c r="E25" t="n">
-        <v>119</v>
-      </c>
-      <c r="F25" t="n">
-        <v>15</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1261</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3721</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L25" t="n">
-        <v>1429</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="26">
@@ -1460,31 +1460,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7761</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F27" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>625</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J27" t="n">
         <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2090</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2222</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4333</v>
+        <v>4345</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>268</v>
+        <v>458</v>
       </c>
       <c r="E2" t="n">
-        <v>728</v>
+        <v>1230</v>
       </c>
       <c r="F2" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>2014</v>
+        <v>2196</v>
       </c>
       <c r="I2" t="n">
-        <v>13472</v>
+        <v>15134</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>407</v>
+        <v>682</v>
       </c>
       <c r="L2" t="n">
-        <v>16061</v>
+        <v>16032</v>
       </c>
     </row>
     <row r="3">
@@ -546,31 +546,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>446</v>
+        <v>1.123</v>
       </c>
       <c r="E3" t="n">
-        <v>452</v>
+        <v>1.128</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>8028</v>
+        <v>7166</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -580,31 +580,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4932</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="E5" t="n">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>7432</v>
+        <v>7568</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -660,31 +660,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>388</v>
+        <v>1667</v>
       </c>
       <c r="I6" t="n">
-        <v>5203</v>
+        <v>8000</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>6667</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -746,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="E8" t="n">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>829</v>
+        <v>280</v>
       </c>
       <c r="I8" t="n">
-        <v>2651</v>
+        <v>6949</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I9" t="n">
-        <v>9545</v>
+        <v>9342</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,31 +820,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>559</v>
+        <v>740</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>74</v>
+      </c>
+      <c r="E10" t="n">
+        <v>76</v>
+      </c>
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>49</v>
-      </c>
-      <c r="E10" t="n">
-        <v>51</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>244</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11667</v>
+      </c>
+      <c r="J10" t="n">
         <v>2</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1623</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22943</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -860,31 +860,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159</v>
+        <v>242</v>
       </c>
       <c r="E11" t="n">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>843</v>
+        <v>2855</v>
       </c>
       <c r="I11" t="n">
-        <v>66784</v>
+        <v>41409</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="I12" t="n">
-        <v>18947</v>
+        <v>14774</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>447</v>
+        <v>542</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="E13" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F13" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4794</v>
+        <v>102</v>
       </c>
       <c r="I13" t="n">
-        <v>5832</v>
+        <v>9173</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -986,25 +986,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="E14" t="n">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
-        <v>8734</v>
+        <v>7551</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>4754</v>
+        <v>3333</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1060,37 +1060,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="E16" t="n">
-        <v>453</v>
+        <v>578</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>2888</v>
+        <v>5868</v>
       </c>
       <c r="I16" t="n">
-        <v>8243</v>
+        <v>6835</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="L16" t="n">
-        <v>25</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="17">
@@ -1100,37 +1100,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4032</v>
+        <v>4643</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1140,37 +1140,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="E18" t="n">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>515</v>
+        <v>643</v>
       </c>
       <c r="I18" t="n">
-        <v>5949</v>
+        <v>5021</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="L18" t="n">
-        <v>702</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="19">
@@ -1186,25 +1186,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="E19" t="n">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>807</v>
+        <v>2596</v>
       </c>
       <c r="I19" t="n">
-        <v>10238</v>
+        <v>6519</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6468</v>
+        <v>758</v>
       </c>
       <c r="I20" t="n">
-        <v>1207</v>
+        <v>12213</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1266,25 +1266,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E21" t="n">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="I21" t="n">
-        <v>24452</v>
+        <v>20861</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,25 +1300,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4286</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6667</v>
+        <v>8947</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1380,31 +1380,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1429</v>
       </c>
       <c r="I24" t="n">
-        <v>15000</v>
+        <v>6667</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1420,37 +1420,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="I25" t="n">
-        <v>3860</v>
+        <v>3286</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="L25" t="n">
-        <v>1304</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8750</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,31 +1500,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>625</v>
+        <v>2537</v>
       </c>
       <c r="I27" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>

--- a/service/matchonfcst.xlsx
+++ b/service/matchonfcst.xlsx
@@ -500,16 +500,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4345</v>
+        <v>4405</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="E2" t="n">
-        <v>1230</v>
+        <v>1272</v>
       </c>
       <c r="F2" t="n">
         <v>79</v>
@@ -518,19 +518,19 @@
         <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>2196</v>
+        <v>2137</v>
       </c>
       <c r="I2" t="n">
-        <v>15134</v>
+        <v>16510</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="L2" t="n">
-        <v>16032</v>
+        <v>20014</v>
       </c>
     </row>
     <row r="3">
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.123</v>
+        <v>1.237</v>
       </c>
       <c r="E3" t="n">
-        <v>1.128</v>
+        <v>1.242</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -558,13 +558,13 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>7166</v>
+        <v>7461</v>
       </c>
       <c r="J3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>374</v>
+        <v>407</v>
       </c>
       <c r="E5" t="n">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I5" t="n">
-        <v>7568</v>
+        <v>7739</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -700,16 +700,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6667</v>
+        <v>6316</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E8" t="n">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="I8" t="n">
-        <v>6949</v>
+        <v>6679</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -780,16 +780,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I9" t="n">
-        <v>9342</v>
+        <v>9268</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E10" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -838,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="I10" t="n">
-        <v>11667</v>
+        <v>12339</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>883</v>
+        <v>928</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E11" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2855</v>
+        <v>2825</v>
       </c>
       <c r="I11" t="n">
-        <v>41409</v>
+        <v>41975</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -900,16 +900,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="I12" t="n">
-        <v>14774</v>
+        <v>14970</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
@@ -940,28 +940,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E13" t="n">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>102</v>
+        <v>5191</v>
       </c>
       <c r="I13" t="n">
-        <v>9173</v>
+        <v>9266</v>
       </c>
       <c r="J13" t="n">
         <v>9</v>
@@ -980,16 +980,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="E14" t="n">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -998,13 +998,13 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>7551</v>
+        <v>7815</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="E16" t="n">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="F16" t="n">
         <v>72</v>
@@ -1078,19 +1078,19 @@
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>5868</v>
+        <v>5391</v>
       </c>
       <c r="I16" t="n">
-        <v>6835</v>
+        <v>8691</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L16" t="n">
-        <v>2725</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="17">
@@ -1100,16 +1100,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4643</v>
+        <v>5000</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>540</v>
+        <v>596</v>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>716</v>
       </c>
       <c r="F18" t="n">
         <v>42</v>
@@ -1158,19 +1158,19 @@
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>643</v>
+        <v>591</v>
       </c>
       <c r="I18" t="n">
-        <v>5021</v>
+        <v>5464</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K18" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L18" t="n">
-        <v>1079</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="19">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1511</v>
+        <v>766</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="E19" t="n">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F19" t="n">
         <v>30</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2596</v>
+        <v>2265</v>
       </c>
       <c r="I19" t="n">
-        <v>6519</v>
+        <v>7832</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1376</v>
+        <v>1394</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E21" t="n">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
@@ -1278,13 +1278,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>787</v>
+        <v>1584</v>
       </c>
       <c r="I21" t="n">
-        <v>20861</v>
+        <v>21196</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4286</v>
+        <v>3750</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8947</v>
+        <v>8095</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932</v>
+        <v>957</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1398,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1429</v>
+        <v>1250</v>
       </c>
       <c r="I24" t="n">
-        <v>6667</v>
+        <v>7143</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F25" t="n">
         <v>4</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="I25" t="n">
-        <v>3286</v>
+        <v>3553</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1450,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="L25" t="n">
-        <v>2211</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="26">
@@ -1460,16 +1460,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>8750</v>
+        <v>8824</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2537</v>
+        <v>2267</v>
       </c>
       <c r="I27" t="n">
-        <v>2800</v>
+        <v>3103</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
